--- a/Open Reporters Collection/Open Reporters Collection.xlsx
+++ b/Open Reporters Collection/Open Reporters Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/Open Reporters Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F7EAC-2DF1-F04F-A0FA-0A99B6ADCF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D031137E-021D-4344-AFF5-50B1D548C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="2800" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7816" uniqueCount="7596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7816" uniqueCount="7597">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22892,6 +22892,9 @@
   </si>
   <si>
     <t>Takend from Open Reports Collection at FreeGenes</t>
+  </si>
+  <si>
+    <t>https://freegenes.github.io/genbank/BBF10K_003359.gb</t>
   </si>
 </sst>
 </file>
@@ -23231,7 +23234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23290,6 +23293,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23746,8 +23751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -24113,7 +24118,7 @@
       <c r="F16" s="18" t="s">
         <v>7529</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="53" t="s">
         <v>7564</v>
       </c>
       <c r="H16" s="18"/>
@@ -24817,7 +24822,7 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="52" t="s">
         <v>7554</v>
       </c>
       <c r="B35" s="41" t="s">
@@ -24835,8 +24840,8 @@
       <c r="F35" s="18" t="s">
         <v>7529</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>7581</v>
+      <c r="G35" s="53" t="s">
+        <v>7596</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="18" t="s">
@@ -26297,10 +26302,14 @@
   <mergeCells count="1">
     <mergeCell ref="A5:F5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G16" r:id="rId1" xr:uid="{7692EBD2-9493-AF46-88F0-C8F308979C1E}"/>
+    <hyperlink ref="G35" r:id="rId2" xr:uid="{5C757F9E-603B-E842-80F0-0AC3207601DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/Open Reporters Collection/Open Reporters Collection.xlsx
+++ b/Open Reporters Collection/Open Reporters Collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/Open Reporters Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D031137E-021D-4344-AFF5-50B1D548C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D105CBC-C0BE-4141-A9A8-F4776F079E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="2800" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="6800" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts and Devices" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7816" uniqueCount="7597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7816" uniqueCount="7598">
   <si>
     <t>Collection Name</t>
   </si>
@@ -22798,103 +22798,106 @@
     <t>amilRFP</t>
   </si>
   <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003331.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003335.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003342.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003343.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003344.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003345.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003346.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003347.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003348.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003349.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003350.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003351.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003352.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003353.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003354.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003355.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003357.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003358.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003360.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003361.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003362.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003364.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003365.gb</t>
-  </si>
-  <si>
     <t>HRP</t>
   </si>
   <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003367.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003368.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003369.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003370.gb</t>
-  </si>
-  <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003371.gb</t>
-  </si>
-  <si>
     <t>CIAP</t>
   </si>
   <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003372.gb</t>
-  </si>
-  <si>
     <t>Takend from Open Reports Collection at FreeGenes</t>
   </si>
   <si>
-    <t>https://freegenes.github.io/genbank/BBF10K_003359.gb</t>
+    <t>BBF10K_003331.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003335.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003338.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003342.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003343.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003344.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003345.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003346.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003347.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003348.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003349.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003350.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003351.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003352.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003353.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003354.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003355.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003357.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003358.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003359.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003360.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003361.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003362.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003364.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003365.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003367.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003368.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003369.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003370.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003371.gb</t>
+  </si>
+  <si>
+    <t>BBF10K_003372.gb</t>
   </si>
 </sst>
 </file>
@@ -23234,7 +23237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -23288,13 +23291,12 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23751,8 +23753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -23826,14 +23828,14 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="46" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>7532</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -24107,7 +24109,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>7445</v>
@@ -24116,10 +24118,10 @@
         <v>7535</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>7564</v>
+        <v>7521</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7567</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18" t="s">
@@ -24145,7 +24147,7 @@
         <v>47</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>7445</v>
@@ -24154,10 +24156,10 @@
         <v>7536</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>7565</v>
+        <v>7521</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7568</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
@@ -24183,7 +24185,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>7445</v>
@@ -24192,10 +24194,10 @@
         <v>7537</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>7530</v>
+        <v>7521</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7569</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
@@ -24221,7 +24223,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>7445</v>
@@ -24230,10 +24232,10 @@
         <v>7538</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>7566</v>
+        <v>7521</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7570</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18" t="s">
@@ -24259,7 +24261,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>7445</v>
@@ -24268,10 +24270,10 @@
         <v>7539</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>7567</v>
+        <v>7521</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7571</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18" t="s">
@@ -24297,7 +24299,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>7445</v>
@@ -24306,10 +24308,10 @@
         <v>7540</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>7568</v>
+        <v>7521</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7572</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18" t="s">
@@ -24335,7 +24337,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>7445</v>
@@ -24344,10 +24346,10 @@
         <v>7541</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>7569</v>
+        <v>7521</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7573</v>
       </c>
       <c r="H22" s="18"/>
       <c r="I22" s="18" t="s">
@@ -24373,7 +24375,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>7445</v>
@@ -24382,10 +24384,10 @@
         <v>7542</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>7570</v>
+        <v>7521</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7574</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18" t="s">
@@ -24411,7 +24413,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>7445</v>
@@ -24420,10 +24422,10 @@
         <v>7543</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>7571</v>
+        <v>7521</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7575</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18" t="s">
@@ -24449,7 +24451,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>7445</v>
@@ -24458,10 +24460,10 @@
         <v>7544</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>7572</v>
+        <v>7521</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7576</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18" t="s">
@@ -24487,7 +24489,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>7445</v>
@@ -24496,10 +24498,10 @@
         <v>7545</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>7573</v>
+        <v>7521</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7577</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18" t="s">
@@ -24525,7 +24527,7 @@
         <v>47</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>7445</v>
@@ -24534,10 +24536,10 @@
         <v>7546</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>7574</v>
+        <v>7521</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7578</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18" t="s">
@@ -24563,7 +24565,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>7445</v>
@@ -24572,10 +24574,10 @@
         <v>7547</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>7575</v>
+        <v>7521</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7579</v>
       </c>
       <c r="H28" s="18"/>
       <c r="I28" s="18" t="s">
@@ -24601,7 +24603,7 @@
         <v>47</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>7445</v>
@@ -24610,10 +24612,10 @@
         <v>7548</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>7576</v>
+        <v>7521</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7580</v>
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="18" t="s">
@@ -24639,7 +24641,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>7445</v>
@@ -24648,10 +24650,10 @@
         <v>7549</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>7577</v>
+        <v>7521</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7581</v>
       </c>
       <c r="H30" s="18"/>
       <c r="I30" s="18" t="s">
@@ -24677,7 +24679,7 @@
         <v>47</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>7445</v>
@@ -24686,10 +24688,10 @@
         <v>7550</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>7578</v>
+        <v>7521</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7582</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="18" t="s">
@@ -24715,7 +24717,7 @@
         <v>47</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>7445</v>
@@ -24724,10 +24726,10 @@
         <v>7551</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>7579</v>
+        <v>7521</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7583</v>
       </c>
       <c r="H32" s="18"/>
       <c r="I32" s="18" t="s">
@@ -24753,7 +24755,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>7445</v>
@@ -24762,10 +24764,10 @@
         <v>7563</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>7580</v>
+        <v>7521</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7584</v>
       </c>
       <c r="H33" s="18"/>
       <c r="I33" s="18" t="s">
@@ -24791,7 +24793,7 @@
         <v>47</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>7445</v>
@@ -24800,10 +24802,10 @@
         <v>7552</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>7581</v>
+        <v>7521</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7585</v>
       </c>
       <c r="H34" s="18"/>
       <c r="I34" s="18" t="s">
@@ -24822,14 +24824,14 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="49" t="s">
         <v>7554</v>
       </c>
       <c r="B35" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>7445</v>
@@ -24838,10 +24840,10 @@
         <v>7554</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>7596</v>
+        <v>7521</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7586</v>
       </c>
       <c r="H35" s="18"/>
       <c r="I35" s="18" t="s">
@@ -24867,7 +24869,7 @@
         <v>47</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>7445</v>
@@ -24876,10 +24878,10 @@
         <v>7556</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>7582</v>
+        <v>7521</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7587</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18" t="s">
@@ -24905,7 +24907,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>7445</v>
@@ -24914,10 +24916,10 @@
         <v>7558</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>7583</v>
+        <v>7521</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7588</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18" t="s">
@@ -24943,7 +24945,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>7445</v>
@@ -24952,10 +24954,10 @@
         <v>7560</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>7584</v>
+        <v>7521</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7589</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
@@ -24981,7 +24983,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>7445</v>
@@ -24990,10 +24992,10 @@
         <v>7561</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>7585</v>
+        <v>7521</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7590</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18" t="s">
@@ -25019,7 +25021,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>7445</v>
@@ -25028,10 +25030,10 @@
         <v>7562</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>7586</v>
+        <v>7521</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7591</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18" t="s">
@@ -25051,25 +25053,25 @@
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
       <c r="A41" s="21" t="s">
-        <v>7587</v>
+        <v>7564</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>7445</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>7587</v>
+        <v>7564</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>7588</v>
+        <v>7521</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7592</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="18" t="s">
@@ -25095,7 +25097,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>7445</v>
@@ -25104,10 +25106,10 @@
         <v>7553</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G42" s="21" t="s">
-        <v>7589</v>
+        <v>7521</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7593</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="18" t="s">
@@ -25133,7 +25135,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>7445</v>
@@ -25142,10 +25144,10 @@
         <v>7555</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>7590</v>
+        <v>7521</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7594</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="18" t="s">
@@ -25171,7 +25173,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>7445</v>
@@ -25180,10 +25182,10 @@
         <v>7557</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>7591</v>
+        <v>7521</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7595</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="18" t="s">
@@ -25209,7 +25211,7 @@
         <v>47</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>7445</v>
@@ -25218,10 +25220,10 @@
         <v>7559</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>7592</v>
+        <v>7521</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7596</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="18" t="s">
@@ -25241,25 +25243,25 @@
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
       <c r="A46" s="21" t="s">
-        <v>7593</v>
+        <v>7565</v>
       </c>
       <c r="B46" s="41" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>7595</v>
+        <v>7566</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>7445</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>7593</v>
+        <v>7565</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>7529</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>7594</v>
+        <v>7521</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7597</v>
       </c>
       <c r="H46" s="18"/>
       <c r="I46" s="18" t="s">
@@ -26303,8 +26305,8 @@
     <mergeCell ref="A5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" xr:uid="{7692EBD2-9493-AF46-88F0-C8F308979C1E}"/>
-    <hyperlink ref="G35" r:id="rId2" xr:uid="{5C757F9E-603B-E842-80F0-0AC3207601DE}"/>
+    <hyperlink ref="G16" r:id="rId1" display="https://freegenes.github.io/genbank/BBF10K_003331.gb" xr:uid="{7692EBD2-9493-AF46-88F0-C8F308979C1E}"/>
+    <hyperlink ref="G35" r:id="rId2" display="https://freegenes.github.io/genbank/BBF10K_003359.gb" xr:uid="{5C757F9E-603B-E842-80F0-0AC3207601DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/Open Reporters Collection/Open Reporters Collection.xlsx
+++ b/Open Reporters Collection/Open Reporters Collection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinoo/_dev/distribution/iGEM-distribution/Open Reporters Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D105CBC-C0BE-4141-A9A8-F4776F079E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5AF233-A189-7A40-BB4A-F41176B28BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="6800" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23754,7 +23754,7 @@
   <dimension ref="A1:M983"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G46" sqref="G16:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
@@ -26304,14 +26304,10 @@
   <mergeCells count="1">
     <mergeCell ref="A5:F5"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" display="https://freegenes.github.io/genbank/BBF10K_003331.gb" xr:uid="{7692EBD2-9493-AF46-88F0-C8F308979C1E}"/>
-    <hyperlink ref="G35" r:id="rId2" display="https://freegenes.github.io/genbank/BBF10K_003359.gb" xr:uid="{5C757F9E-603B-E842-80F0-0AC3207601DE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
